--- a/cleanedData/JumboByYear.xlsx
+++ b/cleanedData/JumboByYear.xlsx
@@ -1,37 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hwpubs-my.sharepoint.com/personal/will_hwmedia_com/Documents/Documents/Coding/HMDA/cleanedData/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_08B5A054DE7C62DEEA3B68B644245E3FB48F8ED8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82F3ECB6-5145-4E19-B972-23F414566C7F}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Jumbo Amount Loaned</t>
+  </si>
+  <si>
+    <t>Jumbo Loans</t>
+  </si>
+  <si>
+    <t>Jumbo Lenders</t>
+  </si>
+  <si>
+    <t>% Amount Loaned Jumbo</t>
+  </si>
+  <si>
+    <t>% Loans Jumbo</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +88,61 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,149 +430,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>amount_loaned</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>loans</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>lenders</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>perc_loan_sum_jumbo</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>perc_loans_jumbo</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>2018</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="3">
         <v>283352865000</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="5">
         <v>336593</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="5">
         <v>4026</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.2437758580949266</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.079971327568277</v>
+      <c r="E2" s="7">
+        <v>0.24377585809492661</v>
+      </c>
+      <c r="F2" s="7">
+        <v>7.9971327568277004E-2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2019</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="3">
         <v>389338135000</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="5">
         <v>423993</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="5">
         <v>3947</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="7">
         <v>0.2363860367737296</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.07885694964379876</v>
+      <c r="F3" s="7">
+        <v>7.885694964379876E-2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>2020</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="3">
         <v>491308090000</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="5">
         <v>527980</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="5">
         <v>3549</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.1575881180605336</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.05227378799918656</v>
+      <c r="E4" s="7">
+        <v>0.15758811806053361</v>
+      </c>
+      <c r="F4" s="7">
+        <v>5.2273787999186562E-2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>2021</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="3">
         <v>643361895000</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="5">
         <v>584605</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="5">
         <v>3260</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.1901265419680069</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.05627771263763662</v>
+      <c r="E5" s="7">
+        <v>0.19012654196800691</v>
+      </c>
+      <c r="F5" s="7">
+        <v>5.6277712637636618E-2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>2022</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="3">
         <v>377866645000</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="5">
         <v>295477</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="5">
         <v>3122</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.2269911385836217</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.06439833218220982</v>
+      <c r="E6" s="7">
+        <v>0.22699113858362169</v>
+      </c>
+      <c r="F6" s="7">
+        <v>6.4398332182209819E-2</v>
       </c>
     </row>
   </sheetData>
